--- a/helper/common_name_lists_AVI1.xlsx
+++ b/helper/common_name_lists_AVI1.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ship_names" sheetId="1" r:id="rId1"/>
-    <sheet name="planet_names" sheetId="2" r:id="rId2"/>
-    <sheet name="character_names" sheetId="3" r:id="rId3"/>
+    <sheet name="ship_class_name" sheetId="4" r:id="rId2"/>
+    <sheet name="planet_names" sheetId="2" r:id="rId3"/>
+    <sheet name="character_names" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="536">
   <si>
     <t>Al</t>
   </si>
@@ -1115,177 +1116,737 @@
     <t>大胆</t>
   </si>
   <si>
+    <t>敏锐</t>
+  </si>
+  <si>
+    <t>嫉妒</t>
+  </si>
+  <si>
+    <t>恶毒</t>
+  </si>
+  <si>
+    <t>复仇</t>
+  </si>
+  <si>
+    <t>不休</t>
+  </si>
+  <si>
+    <t>冷酷</t>
+  </si>
+  <si>
+    <t>勇敢</t>
+  </si>
+  <si>
+    <t>快乐</t>
+  </si>
+  <si>
+    <t>愤怒</t>
+  </si>
+  <si>
+    <t>狡猾</t>
+  </si>
+  <si>
+    <t>荒唐</t>
+  </si>
+  <si>
+    <t>高兴</t>
+  </si>
+  <si>
+    <t>无常</t>
+  </si>
+  <si>
+    <t>谨慎</t>
+  </si>
+  <si>
+    <t>孤僻</t>
+  </si>
+  <si>
+    <t>敏感</t>
+  </si>
+  <si>
+    <t>莫测</t>
+  </si>
+  <si>
+    <t>邪恶</t>
+  </si>
+  <si>
+    <t>欺诈</t>
+  </si>
+  <si>
+    <t>优雅</t>
+  </si>
+  <si>
+    <t>顽强</t>
+  </si>
+  <si>
+    <t>耐心</t>
+  </si>
+  <si>
+    <t>强壮</t>
+  </si>
+  <si>
+    <t>狰狞</t>
+  </si>
+  <si>
+    <t>无懈</t>
+  </si>
+  <si>
+    <t>幸运</t>
+  </si>
+  <si>
+    <t>勇武</t>
+  </si>
+  <si>
+    <t>急促</t>
+  </si>
+  <si>
+    <t>无理</t>
+  </si>
+  <si>
+    <t>可靠</t>
+  </si>
+  <si>
+    <t>活泼</t>
+  </si>
+  <si>
+    <t>狂野</t>
+  </si>
+  <si>
+    <t>热情</t>
+  </si>
+  <si>
+    <t>无畏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叛逆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旺盛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忙碌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热烈</t>
+  </si>
+  <si>
+    <t>固执</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倔强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顽固</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执拗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁莽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野蛮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凶猛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凶残</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放纵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛮横</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>疯狂</t>
-  </si>
-  <si>
-    <t>敏锐</t>
-  </si>
-  <si>
-    <t>嫉妒</t>
-  </si>
-  <si>
-    <t>恶毒</t>
-  </si>
-  <si>
-    <t>复仇</t>
-  </si>
-  <si>
-    <t>不休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骚动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捣乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吵闹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喧嚣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯癫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激昂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>贪婪</t>
-  </si>
-  <si>
-    <t>冷酷</t>
-  </si>
-  <si>
-    <t>勇敢</t>
-  </si>
-  <si>
-    <t>快乐</t>
-  </si>
-  <si>
-    <t>愤怒</t>
-  </si>
-  <si>
-    <t>狡猾</t>
-  </si>
-  <si>
-    <t>荒唐</t>
-  </si>
-  <si>
-    <t>高兴</t>
-  </si>
-  <si>
-    <t>无常</t>
-  </si>
-  <si>
-    <t>谨慎</t>
-  </si>
-  <si>
-    <t>孤僻</t>
-  </si>
-  <si>
-    <t>敏感</t>
-  </si>
-  <si>
-    <t>莫测</t>
-  </si>
-  <si>
-    <t>鲁莽</t>
-  </si>
-  <si>
-    <t>邪恶</t>
-  </si>
-  <si>
-    <t>欺诈</t>
-  </si>
-  <si>
-    <t>优雅</t>
-  </si>
-  <si>
-    <t>顽强</t>
-  </si>
-  <si>
-    <t>耐心</t>
-  </si>
-  <si>
-    <t>强壮</t>
-  </si>
-  <si>
-    <t>凶猛</t>
-  </si>
-  <si>
-    <t>狰狞</t>
-  </si>
-  <si>
-    <t>无懈</t>
-  </si>
-  <si>
-    <t>幸运</t>
-  </si>
-  <si>
-    <t>勇武</t>
-  </si>
-  <si>
-    <t>急促</t>
-  </si>
-  <si>
-    <t>无理</t>
-  </si>
-  <si>
-    <t>可靠</t>
-  </si>
-  <si>
-    <t>活泼</t>
-  </si>
-  <si>
-    <t>狂野</t>
-  </si>
-  <si>
-    <t>热情</t>
-  </si>
-  <si>
-    <t>Hatchling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无畏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叛逆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>的雏鹰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旺盛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忙碌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热烈</t>
-  </si>
-  <si>
-    <t>固执</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倔强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>果断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顽固</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执拗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饥饿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>的雏鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不屈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肥胖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无遮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急躁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桀骜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮躁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健忘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不驯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>善变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无忧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愉快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜悦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爽朗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>振奋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焕发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警惕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚愎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乖戾</t>
+  </si>
+  <si>
+    <t>古怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乖僻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不轨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恼怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴躁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凶狠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激愤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无礼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷淡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴沉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失礼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别扭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忧郁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴暗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严厉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专横</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傲慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骄傲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻蔑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄙夷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高傲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌唱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顽皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hatchling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taka</t>
+  </si>
+  <si>
+    <t>Mirom</t>
+  </si>
+  <si>
+    <t>Porak</t>
+  </si>
+  <si>
+    <t>Kothan</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Kal</t>
+  </si>
+  <si>
+    <t>Yeerel</t>
+  </si>
+  <si>
+    <t>Yaaskan</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Dorak</t>
+  </si>
+  <si>
+    <t>Bwiik</t>
+  </si>
+  <si>
+    <t>Kraanak</t>
+  </si>
+  <si>
+    <t>Vorok</t>
+  </si>
+  <si>
+    <t>Sarok</t>
+  </si>
+  <si>
+    <t>Tirani</t>
+  </si>
+  <si>
+    <t>Irimak</t>
+  </si>
+  <si>
+    <t>Tarok</t>
+  </si>
+  <si>
+    <t>Isoram</t>
+  </si>
+  <si>
+    <t>Yaruuk</t>
+  </si>
+  <si>
+    <t>Bwaaki</t>
+  </si>
+  <si>
+    <t>Koruuk</t>
+  </si>
+  <si>
+    <t>Tanek</t>
+  </si>
+  <si>
+    <t>Kiro</t>
+  </si>
+  <si>
+    <t>Daduro</t>
+  </si>
+  <si>
+    <t>Kilar</t>
+  </si>
+  <si>
+    <t>Rarako</t>
+  </si>
+  <si>
+    <t>Korun</t>
+  </si>
+  <si>
+    <t>Iskar</t>
+  </si>
+  <si>
+    <t>Panok</t>
+  </si>
+  <si>
+    <t>Bami</t>
+  </si>
+  <si>
+    <t>Turi</t>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达德欧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多列克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊里玛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊斯卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊叟列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克欧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寇刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寇鲁克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寇森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克拉那克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米柔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派纳克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朴拉克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷阿寇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨列克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔涅克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔列克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雀尼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃热克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚斯肯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚鲁克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶柔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1335,17 +1896,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1644,18 +2195,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>373</v>
+        <v>467</v>
       </c>
       <c r="B1" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1687,7 +2238,7 @@
         <v>187</v>
       </c>
       <c r="B5" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1759,7 +2310,7 @@
         <v>196</v>
       </c>
       <c r="B14" t="s">
-        <v>336</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1767,7 +2318,7 @@
         <v>197</v>
       </c>
       <c r="B15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1775,7 +2326,7 @@
         <v>198</v>
       </c>
       <c r="B16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1783,7 +2334,7 @@
         <v>199</v>
       </c>
       <c r="B17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1791,7 +2342,7 @@
         <v>200</v>
       </c>
       <c r="B18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1799,7 +2350,7 @@
         <v>201</v>
       </c>
       <c r="B19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1807,7 +2358,7 @@
         <v>202</v>
       </c>
       <c r="B20" t="s">
-        <v>342</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1815,7 +2366,7 @@
         <v>203</v>
       </c>
       <c r="B21" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1823,7 +2374,7 @@
         <v>204</v>
       </c>
       <c r="B22" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1831,7 +2382,7 @@
         <v>205</v>
       </c>
       <c r="B23" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1839,7 +2390,7 @@
         <v>206</v>
       </c>
       <c r="B24" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1847,7 +2398,7 @@
         <v>207</v>
       </c>
       <c r="B25" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1855,7 +2406,7 @@
         <v>208</v>
       </c>
       <c r="B26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1863,7 +2414,7 @@
         <v>209</v>
       </c>
       <c r="B27" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1871,7 +2422,7 @@
         <v>210</v>
       </c>
       <c r="B28" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1879,7 +2430,7 @@
         <v>211</v>
       </c>
       <c r="B29" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1887,7 +2438,7 @@
         <v>212</v>
       </c>
       <c r="B30" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1895,7 +2446,7 @@
         <v>213</v>
       </c>
       <c r="B31" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1903,7 +2454,7 @@
         <v>214</v>
       </c>
       <c r="B32" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1911,7 +2462,7 @@
         <v>215</v>
       </c>
       <c r="B33" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1919,7 +2470,7 @@
         <v>216</v>
       </c>
       <c r="B34" t="s">
-        <v>355</v>
+        <v>415</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1927,7 +2478,7 @@
         <v>217</v>
       </c>
       <c r="B35" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1935,7 +2486,7 @@
         <v>218</v>
       </c>
       <c r="B36" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1943,7 +2494,7 @@
         <v>219</v>
       </c>
       <c r="B37" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1951,7 +2502,7 @@
         <v>220</v>
       </c>
       <c r="B38" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1959,7 +2510,7 @@
         <v>221</v>
       </c>
       <c r="B39" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1967,7 +2518,7 @@
         <v>222</v>
       </c>
       <c r="B40" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1975,7 +2526,7 @@
         <v>223</v>
       </c>
       <c r="B41" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1983,7 +2534,7 @@
         <v>224</v>
       </c>
       <c r="B42" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1991,7 +2542,7 @@
         <v>225</v>
       </c>
       <c r="B43" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1999,7 +2550,7 @@
         <v>226</v>
       </c>
       <c r="B44" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -2007,7 +2558,7 @@
         <v>227</v>
       </c>
       <c r="B45" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -2015,7 +2566,7 @@
         <v>228</v>
       </c>
       <c r="B46" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -2023,7 +2574,7 @@
         <v>229</v>
       </c>
       <c r="B47" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -2031,7 +2582,7 @@
         <v>230</v>
       </c>
       <c r="B48" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -2039,7 +2590,7 @@
         <v>231</v>
       </c>
       <c r="B49" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -2047,7 +2598,7 @@
         <v>232</v>
       </c>
       <c r="B50" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -2055,7 +2606,7 @@
         <v>233</v>
       </c>
       <c r="B51" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -2063,7 +2614,7 @@
         <v>234</v>
       </c>
       <c r="B52" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -2071,7 +2622,7 @@
         <v>235</v>
       </c>
       <c r="B53" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -2079,7 +2630,7 @@
         <v>236</v>
       </c>
       <c r="B54" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -2087,7 +2638,7 @@
         <v>237</v>
       </c>
       <c r="B55" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -2095,7 +2646,7 @@
         <v>238</v>
       </c>
       <c r="B56" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -2103,7 +2654,7 @@
         <v>239</v>
       </c>
       <c r="B57" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -2111,7 +2662,7 @@
         <v>240</v>
       </c>
       <c r="B58" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -2119,7 +2670,7 @@
         <v>241</v>
       </c>
       <c r="B59" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -2127,7 +2678,7 @@
         <v>242</v>
       </c>
       <c r="B60" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -2135,7 +2686,7 @@
         <v>243</v>
       </c>
       <c r="B61" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -2143,7 +2694,7 @@
         <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -2151,7 +2702,7 @@
         <v>245</v>
       </c>
       <c r="B63" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -2159,7 +2710,7 @@
         <v>246</v>
       </c>
       <c r="B64" t="s">
-        <v>246</v>
+        <v>387</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -2167,7 +2718,7 @@
         <v>247</v>
       </c>
       <c r="B65" t="s">
-        <v>247</v>
+        <v>392</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -2175,7 +2726,7 @@
         <v>248</v>
       </c>
       <c r="B66" t="s">
-        <v>248</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -2183,7 +2734,7 @@
         <v>249</v>
       </c>
       <c r="B67" t="s">
-        <v>249</v>
+        <v>383</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -2191,7 +2742,7 @@
         <v>250</v>
       </c>
       <c r="B68" t="s">
-        <v>250</v>
+        <v>384</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -2199,7 +2750,7 @@
         <v>251</v>
       </c>
       <c r="B69" t="s">
-        <v>251</v>
+        <v>386</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -2207,7 +2758,7 @@
         <v>252</v>
       </c>
       <c r="B70" t="s">
-        <v>252</v>
+        <v>389</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -2215,7 +2766,7 @@
         <v>253</v>
       </c>
       <c r="B71" t="s">
-        <v>253</v>
+        <v>390</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -2223,7 +2774,7 @@
         <v>254</v>
       </c>
       <c r="B72" t="s">
-        <v>254</v>
+        <v>391</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -2231,7 +2782,7 @@
         <v>255</v>
       </c>
       <c r="B73" t="s">
-        <v>255</v>
+        <v>396</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -2239,7 +2790,7 @@
         <v>256</v>
       </c>
       <c r="B74" t="s">
-        <v>256</v>
+        <v>394</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -2247,7 +2798,7 @@
         <v>257</v>
       </c>
       <c r="B75" t="s">
-        <v>257</v>
+        <v>395</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -2255,7 +2806,7 @@
         <v>258</v>
       </c>
       <c r="B76" t="s">
-        <v>258</v>
+        <v>397</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -2263,7 +2814,7 @@
         <v>259</v>
       </c>
       <c r="B77" t="s">
-        <v>259</v>
+        <v>398</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -2271,7 +2822,7 @@
         <v>260</v>
       </c>
       <c r="B78" t="s">
-        <v>260</v>
+        <v>399</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -2279,7 +2830,7 @@
         <v>261</v>
       </c>
       <c r="B79" t="s">
-        <v>261</v>
+        <v>401</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -2287,7 +2838,7 @@
         <v>262</v>
       </c>
       <c r="B80" t="s">
-        <v>262</v>
+        <v>402</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -2295,7 +2846,7 @@
         <v>263</v>
       </c>
       <c r="B81" t="s">
-        <v>263</v>
+        <v>405</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -2303,7 +2854,7 @@
         <v>264</v>
       </c>
       <c r="B82" t="s">
-        <v>264</v>
+        <v>406</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -2311,7 +2862,7 @@
         <v>265</v>
       </c>
       <c r="B83" t="s">
-        <v>265</v>
+        <v>407</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -2319,7 +2870,7 @@
         <v>266</v>
       </c>
       <c r="B84" t="s">
-        <v>266</v>
+        <v>408</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -2327,7 +2878,7 @@
         <v>267</v>
       </c>
       <c r="B85" t="s">
-        <v>267</v>
+        <v>409</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -2335,7 +2886,7 @@
         <v>268</v>
       </c>
       <c r="B86" t="s">
-        <v>268</v>
+        <v>410</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -2343,7 +2894,7 @@
         <v>269</v>
       </c>
       <c r="B87" t="s">
-        <v>269</v>
+        <v>411</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -2351,7 +2902,7 @@
         <v>270</v>
       </c>
       <c r="B88" t="s">
-        <v>270</v>
+        <v>412</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -2359,7 +2910,7 @@
         <v>271</v>
       </c>
       <c r="B89" t="s">
-        <v>271</v>
+        <v>413</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -2367,7 +2918,7 @@
         <v>272</v>
       </c>
       <c r="B90" t="s">
-        <v>272</v>
+        <v>414</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -2375,7 +2926,7 @@
         <v>273</v>
       </c>
       <c r="B91" t="s">
-        <v>273</v>
+        <v>385</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -2383,7 +2934,7 @@
         <v>274</v>
       </c>
       <c r="B92" t="s">
-        <v>274</v>
+        <v>416</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -2391,7 +2942,7 @@
         <v>275</v>
       </c>
       <c r="B93" t="s">
-        <v>275</v>
+        <v>417</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -2399,7 +2950,7 @@
         <v>276</v>
       </c>
       <c r="B94" t="s">
-        <v>276</v>
+        <v>418</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -2407,7 +2958,7 @@
         <v>277</v>
       </c>
       <c r="B95" t="s">
-        <v>277</v>
+        <v>420</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -2415,7 +2966,7 @@
         <v>278</v>
       </c>
       <c r="B96" t="s">
-        <v>278</v>
+        <v>419</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -2423,7 +2974,7 @@
         <v>279</v>
       </c>
       <c r="B97" t="s">
-        <v>279</v>
+        <v>421</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -2431,7 +2982,7 @@
         <v>280</v>
       </c>
       <c r="B98" t="s">
-        <v>280</v>
+        <v>422</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -2439,7 +2990,7 @@
         <v>281</v>
       </c>
       <c r="B99" t="s">
-        <v>281</v>
+        <v>423</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -2447,7 +2998,7 @@
         <v>282</v>
       </c>
       <c r="B100" t="s">
-        <v>282</v>
+        <v>424</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -2455,7 +3006,7 @@
         <v>283</v>
       </c>
       <c r="B101" t="s">
-        <v>283</v>
+        <v>425</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -2463,7 +3014,7 @@
         <v>284</v>
       </c>
       <c r="B102" t="s">
-        <v>284</v>
+        <v>426</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -2471,7 +3022,7 @@
         <v>285</v>
       </c>
       <c r="B103" t="s">
-        <v>285</v>
+        <v>427</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -2479,7 +3030,7 @@
         <v>286</v>
       </c>
       <c r="B104" t="s">
-        <v>286</v>
+        <v>428</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -2487,7 +3038,7 @@
         <v>287</v>
       </c>
       <c r="B105" t="s">
-        <v>287</v>
+        <v>429</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -2495,7 +3046,7 @@
         <v>288</v>
       </c>
       <c r="B106" t="s">
-        <v>288</v>
+        <v>430</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -2503,7 +3054,7 @@
         <v>289</v>
       </c>
       <c r="B107" t="s">
-        <v>289</v>
+        <v>431</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -2511,7 +3062,7 @@
         <v>290</v>
       </c>
       <c r="B108" t="s">
-        <v>290</v>
+        <v>432</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -2519,7 +3070,7 @@
         <v>291</v>
       </c>
       <c r="B109" t="s">
-        <v>291</v>
+        <v>433</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -2527,7 +3078,7 @@
         <v>292</v>
       </c>
       <c r="B110" t="s">
-        <v>292</v>
+        <v>434</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -2535,7 +3086,7 @@
         <v>293</v>
       </c>
       <c r="B111" t="s">
-        <v>293</v>
+        <v>435</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -2543,7 +3094,7 @@
         <v>294</v>
       </c>
       <c r="B112" t="s">
-        <v>294</v>
+        <v>436</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -2551,7 +3102,7 @@
         <v>295</v>
       </c>
       <c r="B113" t="s">
-        <v>295</v>
+        <v>437</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -2559,7 +3110,7 @@
         <v>296</v>
       </c>
       <c r="B114" t="s">
-        <v>296</v>
+        <v>438</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -2567,7 +3118,7 @@
         <v>297</v>
       </c>
       <c r="B115" t="s">
-        <v>297</v>
+        <v>439</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -2575,7 +3126,7 @@
         <v>298</v>
       </c>
       <c r="B116" t="s">
-        <v>298</v>
+        <v>440</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -2583,7 +3134,7 @@
         <v>299</v>
       </c>
       <c r="B117" t="s">
-        <v>299</v>
+        <v>441</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -2591,7 +3142,7 @@
         <v>300</v>
       </c>
       <c r="B118" t="s">
-        <v>300</v>
+        <v>442</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -2599,7 +3150,7 @@
         <v>301</v>
       </c>
       <c r="B119" t="s">
-        <v>301</v>
+        <v>443</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -2607,7 +3158,7 @@
         <v>302</v>
       </c>
       <c r="B120" t="s">
-        <v>302</v>
+        <v>444</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -2615,7 +3166,7 @@
         <v>303</v>
       </c>
       <c r="B121" t="s">
-        <v>303</v>
+        <v>445</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -2623,7 +3174,7 @@
         <v>304</v>
       </c>
       <c r="B122" t="s">
-        <v>304</v>
+        <v>446</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -2631,7 +3182,7 @@
         <v>305</v>
       </c>
       <c r="B123" t="s">
-        <v>305</v>
+        <v>447</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -2639,7 +3190,7 @@
         <v>306</v>
       </c>
       <c r="B124" t="s">
-        <v>306</v>
+        <v>448</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -2647,7 +3198,7 @@
         <v>307</v>
       </c>
       <c r="B125" t="s">
-        <v>307</v>
+        <v>449</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -2655,7 +3206,7 @@
         <v>308</v>
       </c>
       <c r="B126" t="s">
-        <v>308</v>
+        <v>450</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -2663,7 +3214,7 @@
         <v>309</v>
       </c>
       <c r="B127" t="s">
-        <v>309</v>
+        <v>451</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -2671,7 +3222,7 @@
         <v>310</v>
       </c>
       <c r="B128" t="s">
-        <v>310</v>
+        <v>452</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -2679,7 +3230,7 @@
         <v>311</v>
       </c>
       <c r="B129" t="s">
-        <v>311</v>
+        <v>453</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -2687,7 +3238,7 @@
         <v>312</v>
       </c>
       <c r="B130" t="s">
-        <v>312</v>
+        <v>454</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -2695,7 +3246,7 @@
         <v>313</v>
       </c>
       <c r="B131" t="s">
-        <v>313</v>
+        <v>455</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -2703,7 +3254,7 @@
         <v>314</v>
       </c>
       <c r="B132" t="s">
-        <v>314</v>
+        <v>456</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -2711,7 +3262,7 @@
         <v>315</v>
       </c>
       <c r="B133" t="s">
-        <v>315</v>
+        <v>457</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -2719,7 +3270,7 @@
         <v>316</v>
       </c>
       <c r="B134" t="s">
-        <v>316</v>
+        <v>458</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -2727,7 +3278,7 @@
         <v>317</v>
       </c>
       <c r="B135" t="s">
-        <v>317</v>
+        <v>459</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -2735,7 +3286,7 @@
         <v>318</v>
       </c>
       <c r="B136" t="s">
-        <v>318</v>
+        <v>460</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -2743,7 +3294,7 @@
         <v>319</v>
       </c>
       <c r="B137" t="s">
-        <v>319</v>
+        <v>461</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -2751,7 +3302,7 @@
         <v>320</v>
       </c>
       <c r="B138" t="s">
-        <v>320</v>
+        <v>462</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -2759,7 +3310,7 @@
         <v>321</v>
       </c>
       <c r="B139" t="s">
-        <v>321</v>
+        <v>463</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -2767,7 +3318,7 @@
         <v>322</v>
       </c>
       <c r="B140" t="s">
-        <v>322</v>
+        <v>464</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -2775,7 +3326,7 @@
         <v>323</v>
       </c>
       <c r="B141" t="s">
-        <v>323</v>
+        <v>465</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -2783,13 +3334,13 @@
         <v>324</v>
       </c>
       <c r="B142" t="s">
-        <v>324</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2797,6 +3348,325 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>497</v>
+      </c>
+      <c r="B8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B9" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B10" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>492</v>
+      </c>
+      <c r="B11" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>473</v>
+      </c>
+      <c r="B12" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>479</v>
+      </c>
+      <c r="B13" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>490</v>
+      </c>
+      <c r="B14" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>488</v>
+      </c>
+      <c r="B15" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>494</v>
+      </c>
+      <c r="B16" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>471</v>
+      </c>
+      <c r="B17" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>493</v>
+      </c>
+      <c r="B18" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>469</v>
+      </c>
+      <c r="B20" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>496</v>
+      </c>
+      <c r="B21" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>470</v>
+      </c>
+      <c r="B22" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>482</v>
+      </c>
+      <c r="B23" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>481</v>
+      </c>
+      <c r="B24" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>468</v>
+      </c>
+      <c r="B25" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>484</v>
+      </c>
+      <c r="B26" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>489</v>
+      </c>
+      <c r="B27" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>498</v>
+      </c>
+      <c r="B28" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>487</v>
+      </c>
+      <c r="B29" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>478</v>
+      </c>
+      <c r="B30" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>480</v>
+      </c>
+      <c r="B31" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>486</v>
+      </c>
+      <c r="B32" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>475</v>
+      </c>
+      <c r="B33" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>474</v>
+      </c>
+      <c r="B34" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>483</v>
+      </c>
+      <c r="B35" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>495</v>
+      </c>
+      <c r="B36" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>485</v>
+      </c>
+      <c r="B37" t="s">
+        <v>508</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:B38">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B65"/>
   <sheetViews>
@@ -3335,14 +4205,14 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
